--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N2">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q2">
-        <v>633.0675782389718</v>
+        <v>0.1100197671566667</v>
       </c>
       <c r="R2">
-        <v>633.0675782389718</v>
+        <v>0.99017790441</v>
       </c>
       <c r="S2">
-        <v>0.06861861795151238</v>
+        <v>9.802887965266477E-06</v>
       </c>
       <c r="T2">
-        <v>0.06861861795151238</v>
+        <v>9.802887965266478E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N3">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q3">
-        <v>413.5209159482172</v>
+        <v>0.06317363157133332</v>
       </c>
       <c r="R3">
-        <v>413.5209159482172</v>
+        <v>0.568562684142</v>
       </c>
       <c r="S3">
-        <v>0.04482180847950332</v>
+        <v>5.628843331134756E-06</v>
       </c>
       <c r="T3">
-        <v>0.04482180847950332</v>
+        <v>5.628843331134756E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N4">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q4">
-        <v>251.6790242177434</v>
+        <v>0.04128275892822222</v>
       </c>
       <c r="R4">
-        <v>251.6790242177434</v>
+        <v>0.371544830354</v>
       </c>
       <c r="S4">
-        <v>0.02727965765874002</v>
+        <v>3.678341366549098E-06</v>
       </c>
       <c r="T4">
-        <v>0.02727965765874002</v>
+        <v>3.678341366549098E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H5">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I5">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J5">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N5">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q5">
-        <v>733.1564840909273</v>
+        <v>0.1242647205805556</v>
       </c>
       <c r="R5">
-        <v>733.1564840909273</v>
+        <v>1.118382485225</v>
       </c>
       <c r="S5">
-        <v>0.07946732135683461</v>
+        <v>1.107212972148629E-05</v>
       </c>
       <c r="T5">
-        <v>0.07946732135683461</v>
+        <v>1.107212972148629E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H6">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I6">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J6">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N6">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q6">
-        <v>145.7162146085709</v>
+        <v>0.02271417764644445</v>
       </c>
       <c r="R6">
-        <v>145.7162146085709</v>
+        <v>0.204427598818</v>
       </c>
       <c r="S6">
-        <v>0.01579427789902033</v>
+        <v>2.023859388596813E-06</v>
       </c>
       <c r="T6">
-        <v>0.01579427789902033</v>
+        <v>2.023859388596813E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H7">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I7">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J7">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N7">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q7">
-        <v>326.168941406005</v>
+        <v>0.06502467202377776</v>
       </c>
       <c r="R7">
-        <v>326.168941406005</v>
+        <v>0.5852220482139999</v>
       </c>
       <c r="S7">
-        <v>0.03535366957228594</v>
+        <v>5.79377316732183E-06</v>
       </c>
       <c r="T7">
-        <v>0.03535366957228594</v>
+        <v>5.79377316732183E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J8">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N8">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q8">
-        <v>764.9407451137191</v>
+        <v>12.94737909028</v>
       </c>
       <c r="R8">
-        <v>764.9407451137191</v>
+        <v>116.52641181252</v>
       </c>
       <c r="S8">
-        <v>0.08291243865388689</v>
+        <v>0.001153626388657175</v>
       </c>
       <c r="T8">
-        <v>0.08291243865388689</v>
+        <v>0.001153626388657175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J9">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N9">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q9">
-        <v>499.6607130718232</v>
+        <v>7.434418174136001</v>
       </c>
       <c r="R9">
-        <v>499.6607130718232</v>
+        <v>66.909763567224</v>
       </c>
       <c r="S9">
-        <v>0.05415855866609127</v>
+        <v>0.0006624152216593751</v>
       </c>
       <c r="T9">
-        <v>0.05415855866609127</v>
+        <v>0.0006624152216593751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H10">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I10">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J10">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N10">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q10">
-        <v>304.1058284016902</v>
+        <v>4.858249963165335</v>
       </c>
       <c r="R10">
-        <v>304.1058284016902</v>
+        <v>43.72424966848801</v>
       </c>
       <c r="S10">
-        <v>0.03296223400663036</v>
+        <v>0.0004328756670458371</v>
       </c>
       <c r="T10">
-        <v>0.03296223400663036</v>
+        <v>0.0004328756670458371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H11">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I11">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J11">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N11">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q11">
-        <v>885.8789906529827</v>
+        <v>14.62375795263334</v>
       </c>
       <c r="R11">
-        <v>885.8789906529827</v>
+        <v>131.6138215737</v>
       </c>
       <c r="S11">
-        <v>0.09602101592374093</v>
+        <v>0.001302993676006454</v>
       </c>
       <c r="T11">
-        <v>0.09602101592374093</v>
+        <v>0.001302993676006454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H12">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I12">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J12">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N12">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q12">
-        <v>176.0700967942399</v>
+        <v>2.673056636210667</v>
       </c>
       <c r="R12">
-        <v>176.0700967942399</v>
+        <v>24.057509725896</v>
       </c>
       <c r="S12">
-        <v>0.01908435547784305</v>
+        <v>0.0002381724248904432</v>
       </c>
       <c r="T12">
-        <v>0.01908435547784305</v>
+        <v>0.0002381724248904432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H13">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I13">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J13">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N13">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q13">
-        <v>394.1126060603291</v>
+        <v>7.652252869378666</v>
       </c>
       <c r="R13">
-        <v>394.1126060603291</v>
+        <v>68.870275824408</v>
       </c>
       <c r="S13">
-        <v>0.04271812879812365</v>
+        <v>0.0006818245438893615</v>
       </c>
       <c r="T13">
-        <v>0.04271812879812365</v>
+        <v>0.0006818245438893615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H14">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I14">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J14">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N14">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q14">
-        <v>935.1472033085613</v>
+        <v>886.9486127529466</v>
       </c>
       <c r="R14">
-        <v>935.1472033085613</v>
+        <v>7982.537514776519</v>
       </c>
       <c r="S14">
-        <v>0.1013612304246498</v>
+        <v>0.07902814290985166</v>
       </c>
       <c r="T14">
-        <v>0.1013612304246498</v>
+        <v>0.07902814290985168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H15">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I15">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J15">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N15">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q15">
-        <v>610.8398871638257</v>
+        <v>509.2881609626693</v>
       </c>
       <c r="R15">
-        <v>610.8398871638257</v>
+        <v>4583.593448664024</v>
       </c>
       <c r="S15">
-        <v>0.06620934365875443</v>
+        <v>0.04537816169747389</v>
       </c>
       <c r="T15">
-        <v>0.06620934365875443</v>
+        <v>0.04537816169747389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H16">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I16">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J16">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N16">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q16">
-        <v>371.7722147189274</v>
+        <v>332.8100641211209</v>
       </c>
       <c r="R16">
-        <v>371.7722147189274</v>
+        <v>2995.290577090088</v>
       </c>
       <c r="S16">
-        <v>0.04029663884817672</v>
+        <v>0.02965376001611369</v>
       </c>
       <c r="T16">
-        <v>0.04029663884817672</v>
+        <v>0.02965376001611369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H17">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I17">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J17">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N17">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q17">
-        <v>1082.995337705263</v>
+        <v>1001.787445851522</v>
       </c>
       <c r="R17">
-        <v>1082.995337705263</v>
+        <v>9016.087012663698</v>
       </c>
       <c r="S17">
-        <v>0.1173865885344937</v>
+        <v>0.08926041520074114</v>
       </c>
       <c r="T17">
-        <v>0.1173865885344937</v>
+        <v>0.08926041520074114</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H18">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I18">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J18">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N18">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q18">
-        <v>215.2473373331988</v>
+        <v>183.1153516681218</v>
       </c>
       <c r="R18">
-        <v>215.2473373331988</v>
+        <v>1648.038165013096</v>
       </c>
       <c r="S18">
-        <v>0.02333080276616483</v>
+        <v>0.01631578873064537</v>
       </c>
       <c r="T18">
-        <v>0.02333080276616483</v>
+        <v>0.01631578873064537</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H19">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I19">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J19">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N19">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q19">
-        <v>481.80634081817</v>
+        <v>524.2107317322229</v>
       </c>
       <c r="R19">
-        <v>481.80634081817</v>
+        <v>4717.896585590007</v>
       </c>
       <c r="S19">
-        <v>0.05222331132354763</v>
+        <v>0.04670777993961568</v>
       </c>
       <c r="T19">
-        <v>0.05222331132354763</v>
+        <v>0.04670777993961568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34.201962</v>
+      </c>
+      <c r="H20">
+        <v>102.605886</v>
+      </c>
+      <c r="I20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>25.84039</v>
+      </c>
+      <c r="N20">
+        <v>77.52117</v>
+      </c>
+      <c r="O20">
+        <v>0.2579718564739331</v>
+      </c>
+      <c r="P20">
+        <v>0.2579718564739332</v>
+      </c>
+      <c r="Q20">
+        <v>883.7920368451801</v>
+      </c>
+      <c r="R20">
+        <v>7954.128331606619</v>
+      </c>
+      <c r="S20">
+        <v>0.07874688836098835</v>
+      </c>
+      <c r="T20">
+        <v>0.07874688836098837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34.201962</v>
+      </c>
+      <c r="H21">
+        <v>102.605886</v>
+      </c>
+      <c r="I21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.837618</v>
+      </c>
+      <c r="N21">
+        <v>44.512854</v>
+      </c>
+      <c r="O21">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="P21">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="Q21">
+        <v>507.475647006516</v>
+      </c>
+      <c r="R21">
+        <v>4567.280823058643</v>
+      </c>
+      <c r="S21">
+        <v>0.04521666461647797</v>
+      </c>
+      <c r="T21">
+        <v>0.04521666461647797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.201962</v>
+      </c>
+      <c r="H22">
+        <v>102.605886</v>
+      </c>
+      <c r="I22">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J22">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.696099333333335</v>
+      </c>
+      <c r="N22">
+        <v>29.088298</v>
+      </c>
+      <c r="O22">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="P22">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="Q22">
+        <v>331.6256209468921</v>
+      </c>
+      <c r="R22">
+        <v>2984.630588522028</v>
+      </c>
+      <c r="S22">
+        <v>0.02954822476514688</v>
+      </c>
+      <c r="T22">
+        <v>0.02954822476514688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.201962</v>
+      </c>
+      <c r="H23">
+        <v>102.605886</v>
+      </c>
+      <c r="I23">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J23">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>29.18610833333333</v>
+      </c>
+      <c r="N23">
+        <v>87.558325</v>
+      </c>
+      <c r="O23">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="P23">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="Q23">
+        <v>998.2221681445501</v>
+      </c>
+      <c r="R23">
+        <v>8983.999513300949</v>
+      </c>
+      <c r="S23">
+        <v>0.08894274485085991</v>
+      </c>
+      <c r="T23">
+        <v>0.08894274485085991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.201962</v>
+      </c>
+      <c r="H24">
+        <v>102.605886</v>
+      </c>
+      <c r="I24">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J24">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.334888666666667</v>
+      </c>
+      <c r="N24">
+        <v>16.004666</v>
+      </c>
+      <c r="O24">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="P24">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="Q24">
+        <v>182.463659451564</v>
+      </c>
+      <c r="R24">
+        <v>1642.172935064076</v>
+      </c>
+      <c r="S24">
+        <v>0.01625772220358524</v>
+      </c>
+      <c r="T24">
+        <v>0.01625772220358524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.201962</v>
+      </c>
+      <c r="H25">
+        <v>102.605886</v>
+      </c>
+      <c r="I25">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J25">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.27237266666666</v>
+      </c>
+      <c r="N25">
+        <v>45.81711799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="P25">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="Q25">
+        <v>522.3451095951719</v>
+      </c>
+      <c r="R25">
+        <v>4701.105986356547</v>
+      </c>
+      <c r="S25">
+        <v>0.04654155085853619</v>
+      </c>
+      <c r="T25">
+        <v>0.04654155085853619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.012956</v>
+      </c>
+      <c r="H26">
+        <v>129.038868</v>
+      </c>
+      <c r="I26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.84039</v>
+      </c>
+      <c r="N26">
+        <v>77.52117</v>
+      </c>
+      <c r="O26">
+        <v>0.2579718564739331</v>
+      </c>
+      <c r="P26">
+        <v>0.2579718564739332</v>
+      </c>
+      <c r="Q26">
+        <v>1111.47155809284</v>
+      </c>
+      <c r="R26">
+        <v>10003.24402283556</v>
+      </c>
+      <c r="S26">
+        <v>0.09903339592647065</v>
+      </c>
+      <c r="T26">
+        <v>0.09903339592647067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>43.012956</v>
+      </c>
+      <c r="H27">
+        <v>129.038868</v>
+      </c>
+      <c r="I27">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J27">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.837618</v>
+      </c>
+      <c r="N27">
+        <v>44.512854</v>
+      </c>
+      <c r="O27">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="P27">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="Q27">
+        <v>638.209810178808</v>
+      </c>
+      <c r="R27">
+        <v>5743.888291609272</v>
+      </c>
+      <c r="S27">
+        <v>0.0568652291238533</v>
+      </c>
+      <c r="T27">
+        <v>0.0568652291238533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>43.012956</v>
+      </c>
+      <c r="H28">
+        <v>129.038868</v>
+      </c>
+      <c r="I28">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J28">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.696099333333335</v>
+      </c>
+      <c r="N28">
+        <v>29.088298</v>
+      </c>
+      <c r="O28">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="P28">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="Q28">
+        <v>417.0578939962961</v>
+      </c>
+      <c r="R28">
+        <v>3753.521045966665</v>
+      </c>
+      <c r="S28">
+        <v>0.03716033868762771</v>
+      </c>
+      <c r="T28">
+        <v>0.03716033868762771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>43.012956</v>
+      </c>
+      <c r="H29">
+        <v>129.038868</v>
+      </c>
+      <c r="I29">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J29">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>29.18610833333333</v>
+      </c>
+      <c r="N29">
+        <v>87.558325</v>
+      </c>
+      <c r="O29">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="P29">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="Q29">
+        <v>1255.3807935529</v>
+      </c>
+      <c r="R29">
+        <v>11298.4271419761</v>
+      </c>
+      <c r="S29">
+        <v>0.1118558745486374</v>
+      </c>
+      <c r="T29">
+        <v>0.1118558745486374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>43.012956</v>
+      </c>
+      <c r="H30">
+        <v>129.038868</v>
+      </c>
+      <c r="I30">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J30">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.334888666666667</v>
+      </c>
+      <c r="N30">
+        <v>16.004666</v>
+      </c>
+      <c r="O30">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="P30">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="Q30">
+        <v>229.469331484232</v>
+      </c>
+      <c r="R30">
+        <v>2065.223983358088</v>
+      </c>
+      <c r="S30">
+        <v>0.02044598171891528</v>
+      </c>
+      <c r="T30">
+        <v>0.02044598171891528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>43.012956</v>
+      </c>
+      <c r="H31">
+        <v>129.038868</v>
+      </c>
+      <c r="I31">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J31">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.27237266666666</v>
+      </c>
+      <c r="N31">
+        <v>45.81711799999999</v>
+      </c>
+      <c r="O31">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="P31">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="Q31">
+        <v>656.9098935269359</v>
+      </c>
+      <c r="R31">
+        <v>5912.189041742424</v>
+      </c>
+      <c r="S31">
+        <v>0.05853142808737052</v>
+      </c>
+      <c r="T31">
+        <v>0.05853142808737052</v>
       </c>
     </row>
   </sheetData>
